--- a/static/data/python/sample exams/Cooper/Cooper_exam_sample_021.xlsx
+++ b/static/data/python/sample exams/Cooper/Cooper_exam_sample_021.xlsx
@@ -31,304 +31,316 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295031EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Adequate core cooling</t>
-  </si>
-  <si>
-    <t>(295003AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.5 / 45.6 ) Manual and automatic bus transfer</t>
-  </si>
-  <si>
-    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.1.36) CONDUCT OF OPERATIONS Knowledge of procedures and limitations involved in core alterations (CFR: 41.10 / 43.6 / 45.7)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295019AA1.03) Ability to operate and/or monitor the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.7 / 45.6) Air compressors </t>
-  </si>
-  <si>
-    <t>(295027EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.8 to 41.10) Reactor water level measurement</t>
-  </si>
-  <si>
-    <t>(295016AK2.13) Knowledge of the relationship between the (APE 16) CONTROL ROOM ABANDONMENT and the following systems or components: (CFR: 41.7 / 45.8) RPS</t>
-  </si>
-  <si>
-    <t>(295025EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(295037EK3.07) Knowledge of the reasons for the following responses or actions as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.5 / 41.7 / 45.6) Alternate control rod insertion methods</t>
-  </si>
-  <si>
-    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.1.7) CONDUCT OF OPERATIONS Ability to evaluate plant performance and make operational judgments based on operating characteristics, reactor behavior, and instrument interpretation (CFR: 41.5 / 43.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295030EA1.07) Ability to operate and/or monitor the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.7 / 45.6) Plant process computer/parameter display systems</t>
-  </si>
-  <si>
-    <t>(295001AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.8 to 41.10) Power/flow distribution</t>
-  </si>
-  <si>
-    <t>(295023AK2.10) Knowledge of the relationship between the (APE 23) REFUELING ACCIDENTS and the following systems or components: (CFR: 41.7 / 45.8) Nuclear instrumentation</t>
-  </si>
-  <si>
-    <t>(295004AA2.03) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) Battery parameters</t>
-  </si>
-  <si>
-    <t>(295026EK3.01) Knowledge of the reasons for the following responses or actions as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.5 / 45.6) Emergency/normal depressurization</t>
-  </si>
-  <si>
-    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.2.39) EQUIPMENT CONTROL Knowledge of less than or equal to 1 hour technical specification action statements (This K/A does not include action statements of 1 hour or less that follow the expiration of a completion time for a technical specification condition for which an action statement has already been entered.) (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(700000AA1.02) Ability to operate and/or monitor the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 41.10 / 45.5 / 45.7 / 45.8) Turbine/generator controls</t>
-  </si>
-  <si>
-    <t>(295005AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 5) MAIN TURBINE GENERATOR TRIP:(CFR: 41.8 to 41.10) Reactor level control</t>
-  </si>
-  <si>
-    <t>(295024EK2.12) Knowledge of the relationship between the (EPE 1) HIGH DRYWELL PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) Suppression pool cooling</t>
-  </si>
-  <si>
-    <t>(295038EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Source of offsite release</t>
-  </si>
-  <si>
-    <t>(295006AK3.05) Knowledge of the reasons for the following responses or actions as they apply to (APE 6) SCRAM: (CFR: 41.5 / 45.6) Direct turbine generator trip</t>
-  </si>
-  <si>
-    <t>(295011AA1.01) Ability to operate and/or monitor the following as they apply to (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.7 / 45.6) Containment ventilation/cooling system</t>
-  </si>
-  <si>
-    <t>(295022AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS: (CFR: 41.8 to 41.10) Reactor pressure vs. rod insertion capability</t>
-  </si>
-  <si>
-    <t>(295009AK2.06) Knowledge of the relationship between the (APE 9) LOW REACTOR WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) RPS</t>
-  </si>
-  <si>
-    <t>(295034EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION: (CFR: 41.10 / 43.5 / 45.13) Ventilation radiation levels</t>
-  </si>
-  <si>
-    <t>(295008AK3.09) Knowledge of the reasons for the following responses or actions as they apply to (APE 8) HIGH REACTOR WATER LEVEL: (CFR: 41.5 / 45.6) HPCS injection valve closure</t>
-  </si>
-  <si>
-    <t>(295017) (APE 17) ABNORMAL OFFSITE RELEASE RATE (G2.1.40) CONDUCT OF OPERATIONS Knowledge of refueling administrative requirements (CFR: 41.10 / 43.5 / 43.6 / 45.13)</t>
-  </si>
-  <si>
-    <t>(215005K5.06) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR: (CFR: 41.5 / 45.3) LPRM/OPRM/APRM channel assignments</t>
-  </si>
-  <si>
-    <t>(209002K1.08) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Component cooling water systems</t>
-  </si>
-  <si>
-    <t>(400000K4.09) Knowledge of (SF8 CCS) COMPONENT COOLING WATER SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Operation from the remote shutdown panel</t>
-  </si>
-  <si>
-    <t>(217000K6.09) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) : (CFR: 41.7 / 45.7) High suppression pool temperature</t>
-  </si>
-  <si>
-    <t>(300000A4.03) Ability to manually operate and/or monitor the (SF8 IA) INSTRUMENT AIR SYSTEM in the control room: (CFR: 41.8 / 45.5 to 45.8) Manual isolations</t>
-  </si>
-  <si>
-    <t>(262001A2.11) Ability to (a) predict the impacts of the following on the (SF6 AC) AC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Degraded bus voltages</t>
-  </si>
-  <si>
-    <t>(263000) (SF6 DC) DC ELECTRICAL DISTRIBUTION (G2.4.21) EMERGENCY PROCEDURES / PLAN Knowledge of the parameters and logic used to assess the status of emergency operating procedures critical safety functions or shutdown critical safety functions (CFR: 41.7 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(209001K2.01) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Pumps</t>
-  </si>
-  <si>
-    <t>(261000A3.01) Ability to monitor automatic operation of the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM including: (CFR: 41.7 / 45.7) System flow</t>
-  </si>
-  <si>
-    <t>(218000A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM including: (CFR: 41.5 / 45.5) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(212000K3.02) Knowledge of the effect that a loss or malfunction of the (SF7 RPS) REACTOR PROTECTION SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) PCIS/NSSSS</t>
-  </si>
-  <si>
-    <t>(215004K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM : (CFR: 41.5 / 45.3) Changing detector position</t>
-  </si>
-  <si>
-    <t>(205000K1.17) Knowledge of the physical connections and/or cause and effect relationships between the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Recirculation system</t>
-  </si>
-  <si>
-    <t>(223002K4.07) Knowledge of (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF design features and/or interlocks that provide for the following: (CFR: 41.7) Physical separation of system components (to prevent localized environmental factors, electrical faults, and physical events from impairing system response)</t>
-  </si>
-  <si>
-    <t>(239002K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF3 SRV) SAFETY RELIEF VALVES: (CFR: 41.7 / 45.5 to 45.8) Nuclear boiler instrument system (pressure indication)</t>
-  </si>
-  <si>
-    <t>(203000A4.05) Ability to manually operate and/or monitor the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) Manual initiation controls</t>
-  </si>
-  <si>
-    <t>(264000A2.12) Ability to (a) predict the impacts of the following on the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of DC electrical distribution</t>
-  </si>
-  <si>
-    <t>(259002) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM (291005K1.09) MOTORS AND GENERATORS (CFR: 41.7) Interrelations of the following: VARs, watts, amps, volts, power factor</t>
-  </si>
-  <si>
-    <t>(211000K2.03) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Heater power</t>
-  </si>
-  <si>
-    <t>(510000A3.03) Ability to monitor automatic operation of the (SF4 SWS*) SERVICE WATER SYSTEM including: (CFR: 41.7 / 45.5) Traveling screen operation</t>
-  </si>
-  <si>
-    <t>(262002A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) including: (CFR: 41.5 / 45.5) Inverter outputs</t>
-  </si>
-  <si>
-    <t>(215003K3.05) Knowledge of the effect that a loss or malfunction of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) APRM system</t>
-  </si>
-  <si>
-    <t>(215005K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR: (CFR: 41.5 / 45.3) LPRM detector location and core symmetry</t>
-  </si>
-  <si>
-    <t>(209002K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Condensate system</t>
-  </si>
-  <si>
-    <t>(400000K4.01) Knowledge of (SF8 CCS) COMPONENT COOLING WATER SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Automatic start of standby pump</t>
-  </si>
-  <si>
-    <t>(217000K6.06) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) : (CFR: 41.7 / 45.7) Keep fill system</t>
-  </si>
-  <si>
-    <t>(226001A1.07) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE including: (CFR: 41.5 / 45.5) System pressure</t>
-  </si>
-  <si>
-    <t>(290003K3.05) Knowledge of the effect that a loss or malfunction of the (SF9 CRV) CONTROL ROOM VENTILATION will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Control room humidity</t>
-  </si>
-  <si>
-    <t>(233000K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP: (CFR: 41.5 / 45.3) Heat removal mechanisms</t>
-  </si>
-  <si>
-    <t>(239003K1.08) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Nuclear boiler instrumentation system</t>
-  </si>
-  <si>
-    <t>(290002K4.02) Knowledge of (SF4 RVI) REACTOR VESSEL INTERNALS design features and/or interlocks that provide for the following: (CFR: 41.7) Flow paths within the reactor vessel</t>
-  </si>
-  <si>
-    <t>(204000K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM : (CFR: 41.7 / 45.7) Main condenser</t>
-  </si>
-  <si>
-    <t>(288000A4.02) Ability to manually operate and/or monitor the (SF9 PVS) PLANT VENTILATION SYSTEMS in the control room: (CFR: 41.4 / 41.7 / 45.5 to 45.8) Area temperature</t>
-  </si>
-  <si>
-    <t>(268000A2.05) Ability to (a) predict the impacts of the following on the (SF9 RW) RADWASTE SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Abnormal primary containment sump pump run time</t>
-  </si>
-  <si>
-    <t>(201005) (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
-  </si>
-  <si>
-    <t>(241000K2.02) (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Controls</t>
-  </si>
-  <si>
-    <t>(202002A3.04) Ability to monitor automatic operation of the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM including: (CFR: 41.7 / 45.7) System lockups/lockouts</t>
-  </si>
-  <si>
-    <t>(G2.1.31) CONDUCT OF OPERATIONS Ability to locate control room switches, controls, and indications, and to determine that they correctly reflect the desired plant lineup (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.1) CONDUCT OF OPERATIONS Knowledge of conduct of operations requirements (CFR: 41.10 / 43.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.26) EMERGENCY PROCEDURES / PLAN Knowledge of facility protection requirements, including fire brigade and portable firefighting equipment usage (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(292008K1.16) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (HEATUP OPERATION) Explain procedures for establishing and controlling heatup rate</t>
-  </si>
-  <si>
-    <t>(292005K1.01) CONTROL RODS (CFR: 41.1) Relate notch and rod position</t>
-  </si>
-  <si>
-    <t>(292002K1.11) NEUTRON LIFE CYCLE (CFR: 41.1) Define reactivity</t>
-  </si>
-  <si>
-    <t>(293006K1.09) FLUID STATICS AND DYNAMICS (CFR: 41.14) (PUMPS AND PUMP CHARACTERISTICS) Discuss relationship between pump speed, head, flow, and power without using formulas or calculations</t>
-  </si>
-  <si>
-    <t>(293003K1.23) STEAM (CFR: 41.14) Use saturated and superheated steam tables</t>
-  </si>
-  <si>
-    <t>(293010K1.04) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State how the possibility of brittle fracture is minimized by operating limitations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295031EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor water level </t>
-  </si>
-  <si>
-    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.4.50) EMERGENCY PROCEDURES / PLAN Ability to verify system alarm setpoints and operate controls identified in the alarm response procedure (CFR: 41.10 / 43.5 / 45.3)</t>
-  </si>
-  <si>
-    <t>(295018AA2.06) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) Surge tank level</t>
-  </si>
-  <si>
-    <t>(295019) (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR (G2.4.44) EMERGENCY PROCEDURES / PLAN Knowledge of emergency plan implementing procedures protective action recommendations (SRO Only) (CFR: 41.10 / 41.12 / 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(295027EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.4.46) EMERGENCY PROCEDURES / PLAN Ability to verify that the alarms are consistent with the plant conditions (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295025EA2.06) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
-  </si>
-  <si>
-    <t>(295010AA2.06) Ability to determine and/or interpret the following as they apply to (APE 10) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Drywell temperature</t>
-  </si>
-  <si>
-    <t>(295002) (APE 2) LOSS OF MAIN CONDENSER VACUUM (G2.2.20) EQUIPMENT CONTROL Knowledge of the process for managing troubleshooting activities (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295020AA2.10) Ability to determine and/or interpret the following as they apply to (APE 20) INADVERTENT CONTAINMENT ISOLATION: (CFR: 41.10 / 43.5 / 45.13) Reactor building radiation</t>
-  </si>
-  <si>
-    <t>(300000A2.02) Ability to (a) predict the impacts of the following on the (SF8 IA) INSTRUMENT AIR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Component cooling water system malfunction</t>
-  </si>
-  <si>
-    <t>(262001) (SF6 AC) AC ELECTRICAL DISTRIBUTION (G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
-  </si>
-  <si>
-    <t>(263000A2.03) Ability to (a) predict the impacts of the following on the (SF6 DC) DC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Abnormal battery parameters</t>
-  </si>
-  <si>
-    <t>(209001) (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM  (G2.4.32) EMERGENCY PROCEDURES / PLAN Knowledge of operator response to loss of annunciators (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(261000A2.07) Ability to (a) predict the impacts of the following on the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) AC electrical distribution failure </t>
-  </si>
-  <si>
-    <t>(215001) (SF7 TIP) TRAVERSING IN CORE PROBE (G2.4.31) EMERGENCY PROCEDURES / PLAN Knowledge of annunciator alarms, indications, or response procedures (CFR: 41.10 / 45.3)</t>
-  </si>
-  <si>
-    <t>(230000A2.03) Ability to (a) predict the impacts of the following on the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Valve closures due to malfunction(s)</t>
-  </si>
-  <si>
-    <t>(239001) (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM (G2.2.23) EQUIPMENT CONTROL Ability to track technical specification limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.4) CONDUCT OF OPERATIONS Knowledge of individual licensed operator responsibilities related to shift staffing, such as medical requirements, “no-solo” operation, maintenance of active license status, 10 CFR Part 55 (CFR: 41.10 / 43.2)</t>
-  </si>
-  <si>
-    <t>(G2.1.43) CONDUCT OF OPERATIONS Ability to use an online power distribution monitoring system and/or procedures to determine the effects on reactivity of plant changes, such as RCS temperature, secondary plant, or fuel depletion (CFR: 41.10 / 43.6 / 45.6)</t>
-  </si>
-  <si>
-    <t>(G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
-  </si>
-  <si>
-    <t>(G2.4.16) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures implementation hierarchy and coordination with other support procedures or guidelines such as, operating procedures, abnormal operating procedures, or severe accident management guidelines (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.4.14) EMERGENCY PROCEDURES / PLAN Knowledge of general guidelines for emergency and abnormal operating procedures usage (CFR: 41.10 / 43.1 / 45.13)</t>
+    <t>(295030EA1.08) Ability to operate and/or monitor the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.7 / 45.6) Systems required to shut down the reactor</t>
+  </si>
+  <si>
+    <t>(295038EK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.8 to 41.10) Elevated vs. ground level release</t>
+  </si>
+  <si>
+    <t>(295027EK2.06) Knowledge of the relationship between the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) and the following systems or components: (CFR: 41.7 / 45.8) Reactor/turbine pressure regulating system</t>
+  </si>
+  <si>
+    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.1.39) CONDUCT OF OPERATIONS Knowledge of conservative decision-making practices (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295024EA2.08) Ability to determine and/or interpret the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Drywell radiation levels</t>
+  </si>
+  <si>
+    <t>(700000AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Reactor and turbine trip criteria</t>
+  </si>
+  <si>
+    <t>(295025EA1.03) Ability to operate and/or monitor the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.7 / 45.6) Safety/relief valves</t>
+  </si>
+  <si>
+    <t>(295026EK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.8 to 41.10) Primary containment integrity</t>
+  </si>
+  <si>
+    <t>(295006AK2.03) Knowledge of the relationship between the (APE 6) SCRAM and the following systems or components: (CFR: 41.7 / 45.8) CRD hydraulic system</t>
+  </si>
+  <si>
+    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.4.26) EMERGENCY PROCEDURES / PLAN Knowledge of facility protection requirements, including fire brigade and portable firefighting equipment usage (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295005AA2.09) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Turbine limitations</t>
+  </si>
+  <si>
+    <t>(295021AK3.06) Knowledge of the reasons for the following responses or actions as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.5 / 45.6) Installing fuel pool gates</t>
+  </si>
+  <si>
+    <t>(295016AA1.15) Ability to operate and/or monitor the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.7 / 45.6) Emergency generators</t>
+  </si>
+  <si>
+    <t>(295037EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.8 to 41.10) Reactor water level effects on reactor power</t>
+  </si>
+  <si>
+    <t>(295018AK2.02) Knowledge of the relationship between the (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) and the following systems or components: (CFR: 41.7 / 45.8) Plant operations</t>
+  </si>
+  <si>
+    <t>(295001) (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION (G2.2.13) EQUIPMENT CONTROL Knowledge of tagging and clearance procedures (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295031EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295019AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.5 / 45.6) Standby air compressor operation</t>
+  </si>
+  <si>
+    <t>(295023AA1.07) Ability to operate and/or monitor the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.7 / 45.6) SGTS/FRVS</t>
+  </si>
+  <si>
+    <t>(600000AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 24) PLANT FIRE ON SITE: (CFR: 41.8 / 41.10 / 45.3) Firefighting methods for each type of fire</t>
+  </si>
+  <si>
+    <t>(500000) (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION (G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295014AA2.05) Ability to determine and/or interpret the following as they apply to (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.10 / 43.5 / 45.13) Violation of safety limits</t>
+  </si>
+  <si>
+    <t>(295002AK3.05) Knowledge of the reasons for the following responses or actions as they apply to (APE 2) LOSS OF MAIN CONDENSER VACUUM: (CFR: 41.5 / 45.6) Main steam isolation valve closure</t>
+  </si>
+  <si>
+    <t>(295035EA1.03) Ability to operate and/or monitor the following as they apply to (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE: (CFR: 41.7 / 45.6) Blowout panels</t>
+  </si>
+  <si>
+    <t>(295032EK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.8 to 41.10) Secondary containment leakage detection</t>
+  </si>
+  <si>
+    <t>(295022AK2.08) Knowledge of the relationship between the (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS and the following systems or components: (CFR: 41.7 / 45.8) Condensate system</t>
+  </si>
+  <si>
+    <t>(209002K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM : (CFR: 41.5 / 45.3) Adequate core cooling</t>
+  </si>
+  <si>
+    <t>(259002K1.16) Knowledge of the physical connections and/or cause and effect relationships between the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) ECCS</t>
+  </si>
+  <si>
+    <t>(211000K4.01) Knowledge of (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Zero leakage to the reactor (squib valves)</t>
+  </si>
+  <si>
+    <t>(510000K3.14) Knowledge of the effect that a loss or malfunction of the (SF4 SWS*) SERVICE WATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Condensate system</t>
+  </si>
+  <si>
+    <t>(217000A2.13) Ability to (a) predict the impacts of the following on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of room cooling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(203000A4.03) Ability to manually operate and/or monitor the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) Keep fill system </t>
+  </si>
+  <si>
+    <t>(262002K2.01) (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) Knowledge of electrical power supplies to the following: (CFR: 41.7) Static switch/inverter</t>
+  </si>
+  <si>
+    <t>(400000A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM including: (CFR: 41.5 / 45.5) CCW pressure</t>
+  </si>
+  <si>
+    <t>(212000A3.10) Ability to monitor automatic operation of the (SF7 RPS) REACTOR PROTECTION SYSTEM including: (CFR: 41.7 / 45.7) Bypassing SCRAM signals</t>
+  </si>
+  <si>
+    <t>(215005K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR: (CFR: 41.7 / 45.7) RPS</t>
+  </si>
+  <si>
+    <t>(263000) (SF6 DC) DC ELECTRICAL DISTRIBUTION (G2.2.2) EQUIPMENT CONTROL Ability to manipulate the console controls as required to operate the facility between shutdown and designated power levels (CFR: 41.6 / 41.7 / 45.2)</t>
+  </si>
+  <si>
+    <t>(215004K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM : (CFR: 41.5 / 45.3) Detector operation</t>
+  </si>
+  <si>
+    <t>(239002K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 SRV) SAFETY RELIEF VALVES and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Reactor vessel and internals</t>
+  </si>
+  <si>
+    <t>(209001K4.05) Knowledge of (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Pump minimum flow</t>
+  </si>
+  <si>
+    <t>(262001K3.02) Knowledge of the effect that a loss or malfunction of the (SF6 AC) AC ELECTRICAL DISTRIBUTION will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Emergency generators</t>
+  </si>
+  <si>
+    <t>(218000A2.01) Ability to (a) predict the impacts of the following on the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Steam line break</t>
+  </si>
+  <si>
+    <t>(264000A4.02) Ability to manually operate and/or monitor the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) in the control room: (CFR: 41.7 / 45.5 to 45.8) Synchroscope</t>
+  </si>
+  <si>
+    <t>(205000K2.02) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) Knowledge of electrical power supplies to the following: (CFR: 41.7) Motor-operated valves</t>
+  </si>
+  <si>
+    <t>(223002A1.09) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF including: (CFR: 41.5 / 45.5) Secondary containment temperature</t>
+  </si>
+  <si>
+    <t>(215003A3.04) Ability to monitor automatic operation of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM including: (CFR: 41.7 / 45.7) Control rod block signals</t>
+  </si>
+  <si>
+    <t>(300000K6.15) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 IA) INSTRUMENT AIR SYSTEM: (CFR: 41.8 / 45.7) Low instrument air pressure</t>
+  </si>
+  <si>
+    <t>(261000) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM  (291005K1.04) MOTORS AND GENERATORS (CFR: 41.7) Relationship between pump motor current (ammeter reading) and the following: pump fluid flow, head, speed, and stator temperature</t>
+  </si>
+  <si>
+    <t>(209002K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM : (CFR: 41.5 / 45.3) Indications of pump cavitation</t>
+  </si>
+  <si>
+    <t>(259002K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Main and reheat steam system</t>
+  </si>
+  <si>
+    <t>(211000K4.10) Knowledge of (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Overpressure protection</t>
+  </si>
+  <si>
+    <t>(510000K3.10) Knowledge of the effect that a loss or malfunction of the (SF4 SWS*) SERVICE WATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Radiation monitoring system</t>
+  </si>
+  <si>
+    <t>(510001K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 CWS*) CIRCULATING WATER SYSTEM: (CFR: 41.7 / 45.7) Valve malfunctions</t>
+  </si>
+  <si>
+    <t>(201005) (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (G2.2.39) EQUIPMENT CONTROL Knowledge of less than or equal to 1 hour technical specification action statements (This K/A does not include action statements of 1 hour or less that follow the expiration of a completion time for a technical specification condition for which an action statement has already been entered.) (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(290003K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF9 CRV) CONTROL ROOM VENTILATION: (CFR: 41.5 / 45.3) Control of airborne contamination (e.g., radiological, toxic gas, smoke)</t>
+  </si>
+  <si>
+    <t>(230000K1.10) Knowledge of the physical connections and/or cause and effect relationships between the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Component cooling water systems</t>
+  </si>
+  <si>
+    <t>(268000K4.01) Knowledge of (SF9 RW) RADWASTE SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Automatic isolation of radiological release isolation valves</t>
+  </si>
+  <si>
+    <t>(288000K3.01) Knowledge of the effect that a loss or malfunction of the (SF9 PVS) PLANT VENTILATION SYSTEMS will have on the following systems or system parameters: (CFR: 41.5 / 45.3) Secondary containment temperature</t>
+  </si>
+  <si>
+    <t>(204000A2.05) Ability to (a) predict the impacts of the following on the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Abnormal valve position</t>
+  </si>
+  <si>
+    <t>(219000A4.06) Ability to manually operate and/or monitor the (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE in the control room: (CFR: 41.7 / 45.5 to 45.8) Valve logic reset following automatic initiation of LPCI/RHR in injection mode</t>
+  </si>
+  <si>
+    <t>(271000A3.06) Ability to monitor automatic operation of the (SF9 OG) OFFGAS SYSTEM including: (CFR: 41.7 / 45.7) System differential pressure control</t>
+  </si>
+  <si>
+    <t>(202001A1.21) Ability to predict and/or monitor changes in parameters associated with operation of the (SF1, SF4 RS) RECIRCULATION SYSTEM including: (CFR: 41.5 / 45.5) VFD current, power, and voltage</t>
+  </si>
+  <si>
+    <t>(239001A3.04) Ability to monitor automatic operation of the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM including: (CFR: 41.7 / 45.7) Isolation of moisture separator reheater</t>
+  </si>
+  <si>
+    <t>(G2.1.40) CONDUCT OF OPERATIONS Knowledge of refueling administrative requirements (CFR: 41.10 / 43.5 / 43.6 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.38) CONDUCT OF OPERATIONS Knowledge of the station\u2019s requirements for verbal communications when implementing procedures (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.23) EQUIPMENT CONTROL Ability to track technical specification limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
+  </si>
+  <si>
+    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.42) EMERGENCY PROCEDURES / PLAN Knowledge of emergency response facilities (CFR: 41.10 / 45.11)</t>
+  </si>
+  <si>
+    <t>(292006K1.11) FISSION PRODUCT POISONS (CFR: 41.1) Plot the curve and explain the reasoning for the reactivity insertion by Xenon-135 versus time for the following: --Power changes from steady-state power to another</t>
+  </si>
+  <si>
+    <t>(292008K1.24) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (POWER OPERATION) Describe the parameters to be monitored and controlled during rod pattern exchanges</t>
+  </si>
+  <si>
+    <t>(292002K1.09) NEUTRON LIFE CYCLE (CFR: 41.1) Define K-excess (excess reactivity)</t>
+  </si>
+  <si>
+    <t>(293008K1.33) THERMAL HYDRAULICS (CFR: 41.14) (CORE ORIFICING) Explain the need for adequate core bypass flow</t>
+  </si>
+  <si>
+    <t>(293009K1.12) CORE THERMAL LIMITS (CFR: 41.14) (MAPLHGR) Describe the mode of fuel failure for APLHGR</t>
+  </si>
+  <si>
+    <t>(293010K1.02) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State the definition of nil-ductility transition temperature</t>
+  </si>
+  <si>
+    <t>(295030EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Drywell/suppression chamber differential pressure (Mark I, II)</t>
+  </si>
+  <si>
+    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.2.38) EQUIPMENT CONTROL Knowledge of conditions and limitations in the facility license (CFR: 41.7 / 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295027EA2.05) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
+  </si>
+  <si>
+    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
+  </si>
+  <si>
+    <t>(295024EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Drywell pressure</t>
+  </si>
+  <si>
+    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.2.19) EQUIPMENT CONTROL Knowledge of maintenance work order requirements (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295025EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool temperature</t>
+  </si>
+  <si>
+    <t>(295007AA2.04) Ability to determine and/or interpret the following as they apply to (APE 7) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Bypass valve capacity</t>
+  </si>
+  <si>
+    <t>(295029) (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL (G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295008AA2.02) Ability to determine and/or interpret the following as they apply to (APE 8) HIGH REACTOR WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Steam flow/feedflow mismatch</t>
+  </si>
+  <si>
+    <t>(217000A2.11) Ability to (a) predict the impacts of the following on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Inadequate system flow</t>
+  </si>
+  <si>
+    <t>(203000) (SF2, SF4 RHR/LPCI) RHR/LPCI:  INJECTION MODE (G2.4.30) EMERGENCY PROCEDURES / PLAN Knowledge of events related to system operation/status that must be reported to internal organizations or external agencies, such as the State, the NRC, or the transmission system operator (CFR: 41.10 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(262002A2.01) Ability to (a) predict the impacts of the following on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Abnormal voltage</t>
+  </si>
+  <si>
+    <t>(400000) (SF8 CCS) COMPONENT COOLING WATER SYSTEM  (G2.2.1) EQUIPMENT CONTROL Ability to perform pre-startup procedures for the facility, including operating those controls associated with plant equipment that could affect reactivity (CFR: 41.5 / 41.10 / 43.5 / 43.6 / 45.1)</t>
+  </si>
+  <si>
+    <t>(212000A2.06) Ability to (a) predict the impacts of the following on the (SF7 RPS) REACTOR PROTECTION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) High reactor power</t>
+  </si>
+  <si>
+    <t>(226001) (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE  (G2.1.45) CONDUCT OF OPERATIONS Ability to identify and interpret diverse indications to validate the response of another indication (CFR: 41.7 / 43.5 / 45.4)</t>
+  </si>
+  <si>
+    <t>(245000A2.04) Ability to (a) predict the impacts of the following on the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Reactor SCRAM</t>
+  </si>
+  <si>
+    <t>(256000) (SF2 CDS) CONDENSATE SYSTEM (G2.4.23) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing emergency operating procedures implementation (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.14) CONDUCT OF OPERATIONS Knowledge of criteria or conditions that require plantwide announcements, such as pump starts, reactor trips, and mode changes (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.9) CONDUCT OF OPERATIONS Ability to direct licensed personnel activities inside the control room (SRO Only) (CFR: 43.1 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.12) EQUIPMENT CONTROL Knowledge of surveillance procedures (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.20) EQUIPMENT CONTROL Knowledge of the process for managing troubleshooting activities (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.17) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures terms and definitions (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.4.21) EMERGENCY PROCEDURES / PLAN Knowledge of the parameters and logic used to assess the status of emergency operating procedures critical safety functions or shutdown critical safety functions (CFR: 41.7 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>G</t>
   </si>
   <si>
     <t>A2</t>
@@ -337,33 +349,21 @@
     <t>K3</t>
   </si>
   <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>K1</t>
-  </si>
-  <si>
-    <t>K2</t>
-  </si>
-  <si>
     <t>K5</t>
   </si>
   <si>
     <t>K4</t>
   </si>
   <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
     <t>K6</t>
   </si>
   <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>295001</t>
+  </si>
+  <si>
     <t>295031</t>
   </si>
   <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
     <t>295019</t>
   </si>
   <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>295037</t>
+    <t>295023</t>
   </si>
   <si>
     <t>600000</t>
   </si>
   <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295011</t>
+    <t>500000</t>
+  </si>
+  <si>
+    <t>295014</t>
+  </si>
+  <si>
+    <t>295002</t>
+  </si>
+  <si>
+    <t>295035</t>
+  </si>
+  <si>
+    <t>295032</t>
   </si>
   <si>
     <t>295022</t>
   </si>
   <si>
-    <t>295009</t>
-  </si>
-  <si>
-    <t>295034</t>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>510001</t>
+  </si>
+  <si>
+    <t>201005</t>
+  </si>
+  <si>
+    <t>290003</t>
+  </si>
+  <si>
+    <t>230000</t>
+  </si>
+  <si>
+    <t>268000</t>
+  </si>
+  <si>
+    <t>288000</t>
+  </si>
+  <si>
+    <t>204000</t>
+  </si>
+  <si>
+    <t>219000</t>
+  </si>
+  <si>
+    <t>271000</t>
+  </si>
+  <si>
+    <t>202001</t>
+  </si>
+  <si>
+    <t>239001</t>
+  </si>
+  <si>
+    <t>292006</t>
+  </si>
+  <si>
+    <t>292008</t>
+  </si>
+  <si>
+    <t>292002</t>
+  </si>
+  <si>
+    <t>293008</t>
+  </si>
+  <si>
+    <t>293009</t>
+  </si>
+  <si>
+    <t>293010</t>
+  </si>
+  <si>
+    <t>295007</t>
+  </si>
+  <si>
+    <t>295029</t>
   </si>
   <si>
     <t>295008</t>
   </si>
   <si>
-    <t>295017</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
     <t>226001</t>
   </si>
   <si>
-    <t>290003</t>
-  </si>
-  <si>
-    <t>233000</t>
-  </si>
-  <si>
-    <t>239003</t>
-  </si>
-  <si>
-    <t>290002</t>
-  </si>
-  <si>
-    <t>204000</t>
-  </si>
-  <si>
-    <t>288000</t>
-  </si>
-  <si>
-    <t>268000</t>
-  </si>
-  <si>
-    <t>201005</t>
-  </si>
-  <si>
-    <t>241000</t>
-  </si>
-  <si>
-    <t>202002</t>
-  </si>
-  <si>
-    <t>292008</t>
-  </si>
-  <si>
-    <t>292005</t>
-  </si>
-  <si>
-    <t>292002</t>
-  </si>
-  <si>
-    <t>293006</t>
-  </si>
-  <si>
-    <t>293003</t>
-  </si>
-  <si>
-    <t>293010</t>
-  </si>
-  <si>
-    <t>295010</t>
-  </si>
-  <si>
-    <t>295002</t>
-  </si>
-  <si>
-    <t>295020</t>
-  </si>
-  <si>
-    <t>215001</t>
-  </si>
-  <si>
-    <t>230000</t>
-  </si>
-  <si>
-    <t>239001</t>
+    <t>245000</t>
+  </si>
+  <si>
+    <t>256000</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>4.9</v>
+        <v>3.4</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,7 +1426,7 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="D28" t="s">
         <v>111</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="D29" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="D31" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1497,7 +1497,7 @@
         <v>3.2</v>
       </c>
       <c r="D32" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="D33" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,7 +1528,7 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="D34" t="s">
         <v>107</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="D37" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="D38" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,7 +1613,7 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="D39" t="s">
         <v>111</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D40" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,7 +1647,7 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="D41" t="s">
         <v>112</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="D42" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="D43" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="D44" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="D45" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="D46" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="D47" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="D48" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="D49" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,7 +1800,7 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="D50" t="s">
         <v>111</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="D51" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,7 +1834,7 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="D52" t="s">
         <v>112</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="D53" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="D55" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,7 +1902,7 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="D56" t="s">
         <v>111</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="D57" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,7 +1936,7 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="D58" t="s">
         <v>112</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="D59" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D60" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="D61" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,7 +2004,7 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="D62" t="s">
         <v>107</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="D63" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>4.6</v>
+        <v>2.8</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="D77" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="D78" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="D80" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="D81" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="D82" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="D83" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="D84" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="D85" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="D87" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="D88" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2466,7 +2466,7 @@
         <v>3.2</v>
       </c>
       <c r="D89" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="D90" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="D91" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="D92" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D93" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="D94" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2633,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
